--- a/src/price/LDSP_Decors_Premium.xlsx
+++ b/src/price/LDSP_Decors_Premium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lamarty_ldsp\src\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B2C2B-CE9E-4E07-8570-B262A8CD5AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE7B12-5AE5-41E4-8FEC-8D22D88CE6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24810" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
   <si>
     <t>Премиум</t>
   </si>
@@ -249,18 +249,78 @@
   </si>
   <si>
     <t>эра</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D,N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L,N</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D*</t>
+  </si>
+  <si>
+    <t>L,P</t>
+  </si>
+  <si>
+    <t>P,L,N*</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>V,N</t>
+  </si>
+  <si>
+    <t>K,N</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>V,O</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,12 +333,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -286,13 +346,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -576,32 +652,35 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>10</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>16</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>18</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>22</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>26</v>
       </c>
     </row>
@@ -609,378 +688,788 @@
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/price/LDSP_Decors_Premium.xlsx
+++ b/src/price/LDSP_Decors_Premium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lamarty_ldsp\src\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE7B12-5AE5-41E4-8FEC-8D22D88CE6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99900488-FC51-47DF-8327-84DED3D3725F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3540" windowWidth="24810" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -101,15 +101,9 @@
     <t>ЛИЛО</t>
   </si>
   <si>
-    <t xml:space="preserve">маренго </t>
-  </si>
-  <si>
     <t>МУЗА</t>
   </si>
   <si>
-    <t xml:space="preserve">муссон </t>
-  </si>
-  <si>
     <t>намибия</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>орех неаполь</t>
   </si>
   <si>
-    <t xml:space="preserve">ориноко </t>
-  </si>
-  <si>
     <t>орион</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>РЕЙН</t>
   </si>
   <si>
-    <t xml:space="preserve">руанда </t>
-  </si>
-  <si>
     <t>серый камень</t>
   </si>
   <si>
@@ -149,12 +137,6 @@
     <t>СОУЛ</t>
   </si>
   <si>
-    <t xml:space="preserve">софт </t>
-  </si>
-  <si>
-    <t xml:space="preserve">терраццо </t>
-  </si>
-  <si>
     <t>титан</t>
   </si>
   <si>
@@ -227,9 +209,6 @@
     <t>клауд</t>
   </si>
   <si>
-    <t xml:space="preserve">либерти </t>
-  </si>
-  <si>
     <t>медея</t>
   </si>
   <si>
@@ -281,9 +260,6 @@
     <t>L,P</t>
   </si>
   <si>
-    <t>P,L,N*</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -300,6 +276,30 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>либерти</t>
+  </si>
+  <si>
+    <t>маренго</t>
+  </si>
+  <si>
+    <t>муссон</t>
+  </si>
+  <si>
+    <t>ориноко</t>
+  </si>
+  <si>
+    <t>руанда</t>
+  </si>
+  <si>
+    <t>софт</t>
+  </si>
+  <si>
+    <t>терраццо</t>
+  </si>
+  <si>
+    <t>K,P,L,N*</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,18 +686,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -716,16 +716,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,21 +733,21 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -769,10 +769,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,13 +780,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -816,13 +816,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,13 +830,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,19 +855,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,13 +886,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,32 +900,32 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,26 +933,26 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,26 +960,26 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,10 +987,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -998,15 +998,15 @@
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,462 +1014,462 @@
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
